--- a/src/ETTC.xlsx
+++ b/src/ETTC.xlsx
@@ -472,1658 +472,1658 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>427.63</v>
+        <v>422.06</v>
       </c>
       <c r="B2" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C2" t="n">
-        <v>90.78</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>29.79</v>
+        <v>28.44</v>
       </c>
       <c r="E2" t="n">
-        <v>39.23</v>
+        <v>39.54</v>
       </c>
       <c r="F2" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G2" t="n">
-        <v>663.5599999999999</v>
+        <v>666.8099999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>427.63</v>
+        <v>422.06</v>
       </c>
       <c r="B3" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C3" t="n">
-        <v>153.34</v>
+        <v>154.11</v>
       </c>
       <c r="D3" t="n">
-        <v>32.72</v>
+        <v>31.33</v>
       </c>
       <c r="E3" t="n">
-        <v>39.23</v>
+        <v>39.54</v>
       </c>
       <c r="F3" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G3" t="n">
-        <v>729.05</v>
+        <v>729.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>427.63</v>
+        <v>422.06</v>
       </c>
       <c r="B4" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C4" t="n">
-        <v>260.81</v>
+        <v>264.36</v>
       </c>
       <c r="D4" t="n">
-        <v>76.31999999999999</v>
+        <v>74.48</v>
       </c>
       <c r="E4" t="n">
-        <v>39.23</v>
+        <v>39.54</v>
       </c>
       <c r="F4" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G4" t="n">
-        <v>880.12</v>
+        <v>882.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>427.63</v>
+        <v>422.06</v>
       </c>
       <c r="B5" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C5" t="n">
-        <v>229.91</v>
+        <v>233.56</v>
       </c>
       <c r="D5" t="n">
-        <v>76.31999999999999</v>
+        <v>74.48</v>
       </c>
       <c r="E5" t="n">
-        <v>39.23</v>
+        <v>39.54</v>
       </c>
       <c r="F5" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G5" t="n">
-        <v>849.22</v>
+        <v>852.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>427.63</v>
+        <v>422.06</v>
       </c>
       <c r="B6" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C6" t="n">
-        <v>245.36</v>
+        <v>248.96</v>
       </c>
       <c r="D6" t="n">
-        <v>76.31999999999999</v>
+        <v>74.48</v>
       </c>
       <c r="E6" t="n">
-        <v>39.23</v>
+        <v>39.54</v>
       </c>
       <c r="F6" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G6" t="n">
-        <v>864.67</v>
+        <v>867.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>432.92</v>
+        <v>426.92</v>
       </c>
       <c r="B7" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C7" t="n">
-        <v>33.84</v>
+        <v>36.98</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7</v>
+        <v>14.46</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G7" t="n">
-        <v>598.59</v>
+        <v>600.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>432.92</v>
+        <v>426.92</v>
       </c>
       <c r="B8" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C8" t="n">
-        <v>90.78</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>28.15</v>
+        <v>26.78</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G8" t="n">
-        <v>667.98</v>
+        <v>670.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>432.92</v>
+        <v>426.92</v>
       </c>
       <c r="B9" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C9" t="n">
-        <v>153.34</v>
+        <v>154.11</v>
       </c>
       <c r="D9" t="n">
-        <v>33.16</v>
+        <v>31.7</v>
       </c>
       <c r="E9" t="n">
         <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G9" t="n">
-        <v>735.55</v>
+        <v>735.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>432.92</v>
+        <v>426.92</v>
       </c>
       <c r="B10" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C10" t="n">
-        <v>260.81</v>
+        <v>264.36</v>
       </c>
       <c r="D10" t="n">
-        <v>79.48</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G10" t="n">
-        <v>889.34</v>
+        <v>891.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>432.92</v>
+        <v>426.92</v>
       </c>
       <c r="B11" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C11" t="n">
-        <v>192.74</v>
+        <v>196.18</v>
       </c>
       <c r="D11" t="n">
-        <v>79.48</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G11" t="n">
-        <v>821.27</v>
+        <v>823.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>432.92</v>
+        <v>426.92</v>
       </c>
       <c r="B12" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C12" t="n">
-        <v>226.77</v>
+        <v>230.27</v>
       </c>
       <c r="D12" t="n">
-        <v>79.48</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G12" t="n">
-        <v>855.3099999999999</v>
+        <v>857.1799999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>427.89</v>
+        <v>422.3</v>
       </c>
       <c r="B13" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C13" t="n">
-        <v>153.34</v>
+        <v>154.11</v>
       </c>
       <c r="D13" t="n">
-        <v>26.84</v>
+        <v>25.54</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42</v>
+        <v>75.3</v>
       </c>
       <c r="F13" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G13" t="n">
-        <v>761.62</v>
+        <v>759.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>427.89</v>
+        <v>422.3</v>
       </c>
       <c r="B14" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C14" t="n">
-        <v>260.81</v>
+        <v>264.36</v>
       </c>
       <c r="D14" t="n">
-        <v>79.87</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42</v>
+        <v>75.3</v>
       </c>
       <c r="F14" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G14" t="n">
-        <v>922.11</v>
+        <v>922.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>427.89</v>
+        <v>422.3</v>
       </c>
       <c r="B15" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C15" t="n">
-        <v>202.05</v>
+        <v>205.33</v>
       </c>
       <c r="D15" t="n">
-        <v>79.87</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>77.42</v>
+        <v>75.3</v>
       </c>
       <c r="F15" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G15" t="n">
-        <v>863.35</v>
+        <v>863.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>427.89</v>
+        <v>422.3</v>
       </c>
       <c r="B16" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C16" t="n">
-        <v>231.43</v>
+        <v>234.85</v>
       </c>
       <c r="D16" t="n">
-        <v>79.87</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42</v>
+        <v>75.3</v>
       </c>
       <c r="F16" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G16" t="n">
-        <v>892.73</v>
+        <v>892.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>414.08</v>
+        <v>408.65</v>
       </c>
       <c r="B17" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C17" t="n">
-        <v>83.09999999999999</v>
+        <v>86.05</v>
       </c>
       <c r="D17" t="n">
-        <v>21.43</v>
+        <v>20.18</v>
       </c>
       <c r="E17" t="n">
-        <v>34.41</v>
+        <v>34.15</v>
       </c>
       <c r="F17" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G17" t="n">
-        <v>629.14</v>
+        <v>631.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>414.08</v>
+        <v>408.65</v>
       </c>
       <c r="B18" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C18" t="n">
-        <v>180.2</v>
+        <v>189.86</v>
       </c>
       <c r="D18" t="n">
-        <v>24.22</v>
+        <v>22.96</v>
       </c>
       <c r="E18" t="n">
-        <v>34.41</v>
+        <v>34.15</v>
       </c>
       <c r="F18" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G18" t="n">
-        <v>729.03</v>
+        <v>738.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>414.08</v>
+        <v>408.65</v>
       </c>
       <c r="B19" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C19" t="n">
-        <v>282.14</v>
+        <v>295.07</v>
       </c>
       <c r="D19" t="n">
-        <v>81.56</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>34.41</v>
+        <v>34.15</v>
       </c>
       <c r="F19" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G19" t="n">
-        <v>888.3099999999999</v>
+        <v>900.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>414.08</v>
+        <v>408.65</v>
       </c>
       <c r="B20" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C20" t="n">
-        <v>224.12</v>
+        <v>236.94</v>
       </c>
       <c r="D20" t="n">
-        <v>81.56</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>34.41</v>
+        <v>34.15</v>
       </c>
       <c r="F20" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G20" t="n">
-        <v>830.29</v>
+        <v>841.96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>414.08</v>
+        <v>408.65</v>
       </c>
       <c r="B21" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C21" t="n">
-        <v>253.13</v>
+        <v>266</v>
       </c>
       <c r="D21" t="n">
-        <v>81.56</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>34.41</v>
+        <v>34.15</v>
       </c>
       <c r="F21" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G21" t="n">
-        <v>859.3</v>
+        <v>871.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>393.05</v>
+        <v>388.18</v>
       </c>
       <c r="B22" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C22" t="n">
-        <v>113.13</v>
+        <v>117.41</v>
       </c>
       <c r="D22" t="n">
-        <v>24.45</v>
+        <v>23.26</v>
       </c>
       <c r="E22" t="n">
-        <v>30.42</v>
+        <v>30.09</v>
       </c>
       <c r="F22" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G22" t="n">
-        <v>637.1799999999999</v>
+        <v>641.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>393.05</v>
+        <v>388.18</v>
       </c>
       <c r="B23" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C23" t="n">
-        <v>162.49</v>
+        <v>170.11</v>
       </c>
       <c r="D23" t="n">
-        <v>25.04</v>
+        <v>23.85</v>
       </c>
       <c r="E23" t="n">
-        <v>30.42</v>
+        <v>30.09</v>
       </c>
       <c r="F23" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G23" t="n">
-        <v>687.13</v>
+        <v>694.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>393.05</v>
+        <v>388.18</v>
       </c>
       <c r="B24" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C24" t="n">
-        <v>257.95</v>
+        <v>266.32</v>
       </c>
       <c r="D24" t="n">
-        <v>75.23999999999999</v>
+        <v>73.59</v>
       </c>
       <c r="E24" t="n">
-        <v>30.42</v>
+        <v>30.09</v>
       </c>
       <c r="F24" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G24" t="n">
-        <v>832.79</v>
+        <v>840.6900000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>393.05</v>
+        <v>388.18</v>
       </c>
       <c r="B25" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C25" t="n">
-        <v>213.26</v>
+        <v>221.49</v>
       </c>
       <c r="D25" t="n">
-        <v>75.23999999999999</v>
+        <v>73.59</v>
       </c>
       <c r="E25" t="n">
-        <v>30.42</v>
+        <v>30.09</v>
       </c>
       <c r="F25" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G25" t="n">
-        <v>788.1</v>
+        <v>795.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>393.05</v>
+        <v>388.18</v>
       </c>
       <c r="B26" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C26" t="n">
-        <v>235.6</v>
+        <v>243.9</v>
       </c>
       <c r="D26" t="n">
-        <v>75.23999999999999</v>
+        <v>73.59</v>
       </c>
       <c r="E26" t="n">
-        <v>30.42</v>
+        <v>30.09</v>
       </c>
       <c r="F26" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G26" t="n">
-        <v>810.4400000000001</v>
+        <v>818.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>438.71</v>
+        <v>432.22</v>
       </c>
       <c r="B27" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C27" t="n">
-        <v>90.78</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>29.93</v>
+        <v>28.53</v>
       </c>
       <c r="E27" t="n">
-        <v>61.53</v>
+        <v>57.36</v>
       </c>
       <c r="F27" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G27" t="n">
-        <v>697.08</v>
+        <v>694.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>438.71</v>
+        <v>432.22</v>
       </c>
       <c r="B28" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C28" t="n">
-        <v>153.34</v>
+        <v>154.11</v>
       </c>
       <c r="D28" t="n">
-        <v>35.86</v>
+        <v>34.4</v>
       </c>
       <c r="E28" t="n">
-        <v>61.53</v>
+        <v>57.36</v>
       </c>
       <c r="F28" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G28" t="n">
-        <v>765.5700000000001</v>
+        <v>760.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>438.71</v>
+        <v>432.22</v>
       </c>
       <c r="B29" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C29" t="n">
-        <v>260.81</v>
+        <v>264.36</v>
       </c>
       <c r="D29" t="n">
-        <v>95.2</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>61.53</v>
+        <v>57.36</v>
       </c>
       <c r="F29" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G29" t="n">
-        <v>932.38</v>
+        <v>929.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>438.71</v>
+        <v>432.22</v>
       </c>
       <c r="B30" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C30" t="n">
-        <v>181.36</v>
+        <v>184.63</v>
       </c>
       <c r="D30" t="n">
-        <v>95.2</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>61.53</v>
+        <v>57.36</v>
       </c>
       <c r="F30" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G30" t="n">
-        <v>852.9299999999999</v>
+        <v>849.72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>373.82</v>
+        <v>372.74</v>
       </c>
       <c r="B31" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C31" t="n">
-        <v>113.13</v>
+        <v>117.41</v>
       </c>
       <c r="D31" t="n">
-        <v>19.67</v>
+        <v>18.73</v>
       </c>
       <c r="E31" t="n">
-        <v>32.88</v>
+        <v>32.4</v>
       </c>
       <c r="F31" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G31" t="n">
-        <v>615.64</v>
+        <v>623.79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>373.82</v>
+        <v>372.74</v>
       </c>
       <c r="B32" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C32" t="n">
-        <v>162.49</v>
+        <v>170.11</v>
       </c>
       <c r="D32" t="n">
-        <v>23.08</v>
+        <v>22.15</v>
       </c>
       <c r="E32" t="n">
-        <v>32.88</v>
+        <v>32.4</v>
       </c>
       <c r="F32" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G32" t="n">
-        <v>668.4</v>
+        <v>679.91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>373.82</v>
+        <v>372.74</v>
       </c>
       <c r="B33" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C33" t="n">
-        <v>257.95</v>
+        <v>266.32</v>
       </c>
       <c r="D33" t="n">
-        <v>80.86</v>
+        <v>79.89</v>
       </c>
       <c r="E33" t="n">
-        <v>32.88</v>
+        <v>32.4</v>
       </c>
       <c r="F33" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G33" t="n">
-        <v>821.64</v>
+        <v>833.85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>373.82</v>
+        <v>372.74</v>
       </c>
       <c r="B34" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C34" t="n">
-        <v>185.06</v>
+        <v>192.62</v>
       </c>
       <c r="D34" t="n">
-        <v>80.86</v>
+        <v>79.89</v>
       </c>
       <c r="E34" t="n">
-        <v>32.88</v>
+        <v>32.4</v>
       </c>
       <c r="F34" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G34" t="n">
-        <v>748.75</v>
+        <v>760.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>401.52</v>
+        <v>398.13</v>
       </c>
       <c r="B35" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C35" t="n">
-        <v>120.21</v>
+        <v>139.29</v>
       </c>
       <c r="D35" t="n">
-        <v>60.6</v>
+        <v>58.96</v>
       </c>
       <c r="E35" t="n">
-        <v>37.8</v>
+        <v>36.64</v>
       </c>
       <c r="F35" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G35" t="n">
-        <v>696.25</v>
+        <v>715.53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>401.52</v>
+        <v>398.13</v>
       </c>
       <c r="B36" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C36" t="n">
-        <v>193.75</v>
+        <v>220.08</v>
       </c>
       <c r="D36" t="n">
-        <v>183.56</v>
+        <v>181.06</v>
       </c>
       <c r="E36" t="n">
-        <v>37.8</v>
+        <v>36.64</v>
       </c>
       <c r="F36" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G36" t="n">
-        <v>892.76</v>
+        <v>918.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>401.52</v>
+        <v>398.13</v>
       </c>
       <c r="B37" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C37" t="n">
-        <v>159.44</v>
+        <v>183.77</v>
       </c>
       <c r="D37" t="n">
-        <v>183.56</v>
+        <v>181.06</v>
       </c>
       <c r="E37" t="n">
-        <v>37.8</v>
+        <v>36.64</v>
       </c>
       <c r="F37" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G37" t="n">
-        <v>858.45</v>
+        <v>882.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>401.52</v>
+        <v>398.13</v>
       </c>
       <c r="B38" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C38" t="n">
-        <v>86.34999999999999</v>
+        <v>106.61</v>
       </c>
       <c r="D38" t="n">
-        <v>46.86</v>
+        <v>45.18</v>
       </c>
       <c r="E38" t="n">
-        <v>30.76</v>
+        <v>29.88</v>
       </c>
       <c r="F38" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G38" t="n">
-        <v>641.63</v>
+        <v>662.3099999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>401.52</v>
+        <v>398.13</v>
       </c>
       <c r="B39" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C39" t="n">
-        <v>133.25</v>
+        <v>161.62</v>
       </c>
       <c r="D39" t="n">
-        <v>111.77</v>
+        <v>109.67</v>
       </c>
       <c r="E39" t="n">
-        <v>30.76</v>
+        <v>29.88</v>
       </c>
       <c r="F39" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G39" t="n">
-        <v>753.4400000000001</v>
+        <v>781.8099999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>401.52</v>
+        <v>398.13</v>
       </c>
       <c r="B40" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C40" t="n">
-        <v>107.8</v>
+        <v>136.09</v>
       </c>
       <c r="D40" t="n">
-        <v>111.77</v>
+        <v>109.67</v>
       </c>
       <c r="E40" t="n">
-        <v>30.76</v>
+        <v>29.88</v>
       </c>
       <c r="F40" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G40" t="n">
-        <v>727.99</v>
+        <v>756.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>381.86</v>
+        <v>380.11</v>
       </c>
       <c r="B41" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C41" t="n">
-        <v>180.2</v>
+        <v>189.86</v>
       </c>
       <c r="D41" t="n">
-        <v>31.84</v>
+        <v>30.82</v>
       </c>
       <c r="E41" t="n">
-        <v>33.24</v>
+        <v>29.3</v>
       </c>
       <c r="F41" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G41" t="n">
-        <v>703.27</v>
+        <v>712.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>381.86</v>
+        <v>380.11</v>
       </c>
       <c r="B42" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C42" t="n">
-        <v>282.14</v>
+        <v>295.07</v>
       </c>
       <c r="D42" t="n">
-        <v>70.91</v>
+        <v>69.8</v>
       </c>
       <c r="E42" t="n">
-        <v>33.24</v>
+        <v>29.3</v>
       </c>
       <c r="F42" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G42" t="n">
-        <v>844.28</v>
+        <v>856.77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>381.86</v>
+        <v>380.11</v>
       </c>
       <c r="B43" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C43" t="n">
-        <v>207.32</v>
+        <v>219.97</v>
       </c>
       <c r="D43" t="n">
-        <v>70.91</v>
+        <v>69.8</v>
       </c>
       <c r="E43" t="n">
-        <v>33.24</v>
+        <v>29.3</v>
       </c>
       <c r="F43" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G43" t="n">
-        <v>769.46</v>
+        <v>781.6799999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>381.86</v>
+        <v>380.11</v>
       </c>
       <c r="B44" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C44" t="n">
-        <v>244.73</v>
+        <v>257.52</v>
       </c>
       <c r="D44" t="n">
-        <v>70.91</v>
+        <v>69.8</v>
       </c>
       <c r="E44" t="n">
-        <v>33.24</v>
+        <v>29.3</v>
       </c>
       <c r="F44" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G44" t="n">
-        <v>806.87</v>
+        <v>819.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>440.39</v>
+        <v>433.76</v>
       </c>
       <c r="B45" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C45" t="n">
-        <v>153.34</v>
+        <v>154.11</v>
       </c>
       <c r="D45" t="n">
-        <v>35.56</v>
+        <v>34.05</v>
       </c>
       <c r="E45" t="n">
-        <v>33.55</v>
+        <v>33.54</v>
       </c>
       <c r="F45" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G45" t="n">
-        <v>738.97</v>
+        <v>737.97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>440.39</v>
+        <v>433.76</v>
       </c>
       <c r="B46" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C46" t="n">
-        <v>260.81</v>
+        <v>264.36</v>
       </c>
       <c r="D46" t="n">
-        <v>106.12</v>
+        <v>103.71</v>
       </c>
       <c r="E46" t="n">
-        <v>33.55</v>
+        <v>33.54</v>
       </c>
       <c r="F46" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G46" t="n">
-        <v>916.99</v>
+        <v>917.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>440.39</v>
+        <v>433.76</v>
       </c>
       <c r="B47" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C47" t="n">
-        <v>220.45</v>
+        <v>224.05</v>
       </c>
       <c r="D47" t="n">
-        <v>106.12</v>
+        <v>103.71</v>
       </c>
       <c r="E47" t="n">
-        <v>33.55</v>
+        <v>33.54</v>
       </c>
       <c r="F47" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G47" t="n">
-        <v>876.64</v>
+        <v>877.5700000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>440.23</v>
+        <v>433.61</v>
       </c>
       <c r="B48" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C48" t="n">
-        <v>162.49</v>
+        <v>170.11</v>
       </c>
       <c r="D48" t="n">
-        <v>48.65</v>
+        <v>46.96</v>
       </c>
       <c r="E48" t="n">
-        <v>32.07</v>
+        <v>31.81</v>
       </c>
       <c r="F48" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G48" t="n">
-        <v>759.5599999999999</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>440.23</v>
+        <v>433.61</v>
       </c>
       <c r="B49" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C49" t="n">
-        <v>257.95</v>
+        <v>266.32</v>
       </c>
       <c r="D49" t="n">
-        <v>113.24</v>
+        <v>110.7</v>
       </c>
       <c r="E49" t="n">
-        <v>32.07</v>
+        <v>31.81</v>
       </c>
       <c r="F49" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G49" t="n">
-        <v>919.61</v>
+        <v>924.9400000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>440.23</v>
+        <v>433.61</v>
       </c>
       <c r="B50" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C50" t="n">
-        <v>158.26</v>
+        <v>166.3</v>
       </c>
       <c r="D50" t="n">
-        <v>113.24</v>
+        <v>110.7</v>
       </c>
       <c r="E50" t="n">
-        <v>32.07</v>
+        <v>31.81</v>
       </c>
       <c r="F50" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G50" t="n">
-        <v>819.9299999999999</v>
+        <v>824.92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>424.2</v>
+        <v>418.92</v>
       </c>
       <c r="B51" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C51" t="n">
-        <v>180.2</v>
+        <v>189.86</v>
       </c>
       <c r="D51" t="n">
-        <v>29.81</v>
+        <v>28.48</v>
       </c>
       <c r="E51" t="n">
-        <v>33.21</v>
+        <v>32.57</v>
       </c>
       <c r="F51" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G51" t="n">
-        <v>743.54</v>
+        <v>752.34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>424.2</v>
+        <v>418.92</v>
       </c>
       <c r="B52" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C52" t="n">
-        <v>282.14</v>
+        <v>295.07</v>
       </c>
       <c r="D52" t="n">
-        <v>73.61</v>
+        <v>71.86</v>
       </c>
       <c r="E52" t="n">
-        <v>33.21</v>
+        <v>32.57</v>
       </c>
       <c r="F52" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G52" t="n">
-        <v>889.29</v>
+        <v>900.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>424.2</v>
+        <v>418.92</v>
       </c>
       <c r="B53" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C53" t="n">
-        <v>240.39</v>
+        <v>253.21</v>
       </c>
       <c r="D53" t="n">
-        <v>73.61</v>
+        <v>71.86</v>
       </c>
       <c r="E53" t="n">
-        <v>33.21</v>
+        <v>32.57</v>
       </c>
       <c r="F53" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G53" t="n">
-        <v>847.54</v>
+        <v>859.0700000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>411.63</v>
+        <v>407.39</v>
       </c>
       <c r="B54" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C54" t="n">
-        <v>83.09999999999999</v>
+        <v>86.05</v>
       </c>
       <c r="D54" t="n">
-        <v>23.82</v>
+        <v>22.62</v>
       </c>
       <c r="E54" t="n">
-        <v>34.9</v>
+        <v>34.33</v>
       </c>
       <c r="F54" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G54" t="n">
-        <v>629.58</v>
+        <v>632.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>411.63</v>
+        <v>407.39</v>
       </c>
       <c r="B55" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C55" t="n">
-        <v>180.2</v>
+        <v>189.86</v>
       </c>
       <c r="D55" t="n">
-        <v>31.48</v>
+        <v>30.23</v>
       </c>
       <c r="E55" t="n">
-        <v>34.9</v>
+        <v>34.33</v>
       </c>
       <c r="F55" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G55" t="n">
-        <v>734.33</v>
+        <v>744.3099999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>411.63</v>
+        <v>407.39</v>
       </c>
       <c r="B56" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C56" t="n">
-        <v>282.14</v>
+        <v>295.07</v>
       </c>
       <c r="D56" t="n">
-        <v>75.16</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>34.9</v>
+        <v>34.33</v>
       </c>
       <c r="F56" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G56" t="n">
-        <v>879.95</v>
+        <v>892.86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>411.63</v>
+        <v>407.39</v>
       </c>
       <c r="B57" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C57" t="n">
-        <v>224.49</v>
+        <v>237.36</v>
       </c>
       <c r="D57" t="n">
-        <v>75.16</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>34.9</v>
+        <v>34.33</v>
       </c>
       <c r="F57" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G57" t="n">
-        <v>822.3</v>
+        <v>835.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>418.95</v>
+        <v>414.11</v>
       </c>
       <c r="B58" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C58" t="n">
-        <v>90.78</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>23.58</v>
+        <v>22.33</v>
       </c>
       <c r="E58" t="n">
-        <v>44.92</v>
+        <v>44.43</v>
       </c>
       <c r="F58" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G58" t="n">
-        <v>654.35</v>
+        <v>657.64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>418.95</v>
+        <v>414.11</v>
       </c>
       <c r="B59" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C59" t="n">
-        <v>153.34</v>
+        <v>154.11</v>
       </c>
       <c r="D59" t="n">
-        <v>30.82</v>
+        <v>29.51</v>
       </c>
       <c r="E59" t="n">
-        <v>44.92</v>
+        <v>44.43</v>
       </c>
       <c r="F59" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G59" t="n">
-        <v>724.15</v>
+        <v>724.66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>418.95</v>
+        <v>414.11</v>
       </c>
       <c r="B60" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C60" t="n">
-        <v>260.81</v>
+        <v>264.36</v>
       </c>
       <c r="D60" t="n">
-        <v>73.34</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>44.92</v>
+        <v>44.43</v>
       </c>
       <c r="F60" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G60" t="n">
-        <v>874.15</v>
+        <v>877.0599999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>418.95</v>
+        <v>414.11</v>
       </c>
       <c r="B61" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C61" t="n">
-        <v>207.95</v>
+        <v>217.79</v>
       </c>
       <c r="D61" t="n">
-        <v>73.34</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>44.92</v>
+        <v>44.43</v>
       </c>
       <c r="F61" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G61" t="n">
-        <v>821.29</v>
+        <v>830.48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>406.25</v>
+        <v>402.47</v>
       </c>
       <c r="B62" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C62" t="n">
-        <v>83.09999999999999</v>
+        <v>86.05</v>
       </c>
       <c r="D62" t="n">
-        <v>23.63</v>
+        <v>22.47</v>
       </c>
       <c r="E62" t="n">
-        <v>32.85</v>
+        <v>32.21</v>
       </c>
       <c r="F62" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G62" t="n">
-        <v>621.96</v>
+        <v>625.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>406.25</v>
+        <v>402.47</v>
       </c>
       <c r="B63" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C63" t="n">
-        <v>180.2</v>
+        <v>189.86</v>
       </c>
       <c r="D63" t="n">
-        <v>31.22</v>
+        <v>29.99</v>
       </c>
       <c r="E63" t="n">
-        <v>32.85</v>
+        <v>32.21</v>
       </c>
       <c r="F63" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G63" t="n">
-        <v>726.65</v>
+        <v>737.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>406.25</v>
+        <v>402.47</v>
       </c>
       <c r="B64" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C64" t="n">
-        <v>282.14</v>
+        <v>295.07</v>
       </c>
       <c r="D64" t="n">
-        <v>85.88</v>
+        <v>84.27</v>
       </c>
       <c r="E64" t="n">
-        <v>32.85</v>
+        <v>32.21</v>
       </c>
       <c r="F64" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G64" t="n">
-        <v>883.25</v>
+        <v>896.53</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>406.25</v>
+        <v>402.47</v>
       </c>
       <c r="B65" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C65" t="n">
-        <v>199.82</v>
+        <v>212.83</v>
       </c>
       <c r="D65" t="n">
-        <v>85.88</v>
+        <v>84.27</v>
       </c>
       <c r="E65" t="n">
-        <v>32.85</v>
+        <v>32.21</v>
       </c>
       <c r="F65" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G65" t="n">
-        <v>800.9400000000001</v>
+        <v>814.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>390.04</v>
+        <v>387.6</v>
       </c>
       <c r="B66" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C66" t="n">
-        <v>113.13</v>
+        <v>117.41</v>
       </c>
       <c r="D66" t="n">
-        <v>25.35</v>
+        <v>24.24</v>
       </c>
       <c r="E66" t="n">
-        <v>32.54</v>
+        <v>32.08</v>
       </c>
       <c r="F66" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G66" t="n">
-        <v>637.1900000000001</v>
+        <v>643.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>390.04</v>
+        <v>387.6</v>
       </c>
       <c r="B67" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C67" t="n">
-        <v>162.49</v>
+        <v>170.11</v>
       </c>
       <c r="D67" t="n">
-        <v>34</v>
+        <v>32.86</v>
       </c>
       <c r="E67" t="n">
-        <v>32.54</v>
+        <v>32.08</v>
       </c>
       <c r="F67" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G67" t="n">
-        <v>695.1900000000001</v>
+        <v>705.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>390.04</v>
+        <v>387.6</v>
       </c>
       <c r="B68" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C68" t="n">
-        <v>257.95</v>
+        <v>266.32</v>
       </c>
       <c r="D68" t="n">
-        <v>91.20999999999999</v>
+        <v>89.84</v>
       </c>
       <c r="E68" t="n">
-        <v>32.54</v>
+        <v>32.08</v>
       </c>
       <c r="F68" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G68" t="n">
-        <v>847.85</v>
+        <v>858.34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>390.04</v>
+        <v>387.6</v>
       </c>
       <c r="B69" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C69" t="n">
-        <v>209.74</v>
+        <v>217.84</v>
       </c>
       <c r="D69" t="n">
-        <v>91.20999999999999</v>
+        <v>89.84</v>
       </c>
       <c r="E69" t="n">
-        <v>32.54</v>
+        <v>32.08</v>
       </c>
       <c r="F69" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G69" t="n">
-        <v>799.64</v>
+        <v>809.87</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>397.6</v>
+        <v>394.54</v>
       </c>
       <c r="B70" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C70" t="n">
-        <v>70.95</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>25.28</v>
+        <v>24.12</v>
       </c>
       <c r="E70" t="n">
-        <v>29.06</v>
+        <v>28.58</v>
       </c>
       <c r="F70" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G70" t="n">
-        <v>599.01</v>
+        <v>603.89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>397.6</v>
+        <v>394.54</v>
       </c>
       <c r="B71" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C71" t="n">
-        <v>169.74</v>
+        <v>172.34</v>
       </c>
       <c r="D71" t="n">
-        <v>32.28</v>
+        <v>31.11</v>
       </c>
       <c r="E71" t="n">
-        <v>29.06</v>
+        <v>28.58</v>
       </c>
       <c r="F71" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G71" t="n">
-        <v>704.8099999999999</v>
+        <v>709.0599999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>397.6</v>
+        <v>394.54</v>
       </c>
       <c r="B72" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C72" t="n">
-        <v>244.1</v>
+        <v>254.79</v>
       </c>
       <c r="D72" t="n">
-        <v>71.41</v>
+        <v>70.03</v>
       </c>
       <c r="E72" t="n">
-        <v>29.06</v>
+        <v>28.58</v>
       </c>
       <c r="F72" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G72" t="n">
-        <v>818.29</v>
+        <v>830.4400000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>397.6</v>
+        <v>394.54</v>
       </c>
       <c r="B73" t="n">
-        <v>52.84</v>
+        <v>55.93</v>
       </c>
       <c r="C73" t="n">
-        <v>212.12</v>
+        <v>222.85</v>
       </c>
       <c r="D73" t="n">
-        <v>71.41</v>
+        <v>70.03</v>
       </c>
       <c r="E73" t="n">
-        <v>29.06</v>
+        <v>28.58</v>
       </c>
       <c r="F73" t="n">
-        <v>23.29</v>
+        <v>26.57</v>
       </c>
       <c r="G73" t="n">
-        <v>786.3099999999999</v>
+        <v>798.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/ETTC.xlsx
+++ b/src/ETTC.xlsx
@@ -472,965 +472,965 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>422.06</v>
+        <v>415.35</v>
       </c>
       <c r="B2" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C2" t="n">
-        <v>94.26000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>28.44</v>
+        <v>28.56</v>
       </c>
       <c r="E2" t="n">
-        <v>39.54</v>
+        <v>41.22</v>
       </c>
       <c r="F2" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G2" t="n">
-        <v>666.8099999999999</v>
+        <v>660.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>422.06</v>
+        <v>415.35</v>
       </c>
       <c r="B3" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C3" t="n">
-        <v>154.11</v>
+        <v>149.51</v>
       </c>
       <c r="D3" t="n">
-        <v>31.33</v>
+        <v>31.42</v>
       </c>
       <c r="E3" t="n">
-        <v>39.54</v>
+        <v>41.22</v>
       </c>
       <c r="F3" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G3" t="n">
-        <v>729.55</v>
+        <v>723.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>422.06</v>
+        <v>415.35</v>
       </c>
       <c r="B4" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C4" t="n">
-        <v>264.36</v>
+        <v>261.35</v>
       </c>
       <c r="D4" t="n">
-        <v>74.48</v>
+        <v>74.14</v>
       </c>
       <c r="E4" t="n">
-        <v>39.54</v>
+        <v>41.22</v>
       </c>
       <c r="F4" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G4" t="n">
-        <v>882.95</v>
+        <v>878.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>422.06</v>
+        <v>415.35</v>
       </c>
       <c r="B5" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C5" t="n">
-        <v>233.56</v>
+        <v>230.48</v>
       </c>
       <c r="D5" t="n">
-        <v>74.48</v>
+        <v>74.14</v>
       </c>
       <c r="E5" t="n">
-        <v>39.54</v>
+        <v>41.22</v>
       </c>
       <c r="F5" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G5" t="n">
-        <v>852.14</v>
+        <v>847.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>422.06</v>
+        <v>415.35</v>
       </c>
       <c r="B6" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C6" t="n">
-        <v>248.96</v>
+        <v>245.92</v>
       </c>
       <c r="D6" t="n">
-        <v>74.48</v>
+        <v>74.14</v>
       </c>
       <c r="E6" t="n">
-        <v>39.54</v>
+        <v>41.22</v>
       </c>
       <c r="F6" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G6" t="n">
-        <v>867.54</v>
+        <v>863.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>426.92</v>
+        <v>419.9</v>
       </c>
       <c r="B7" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C7" t="n">
-        <v>36.98</v>
+        <v>35.05</v>
       </c>
       <c r="D7" t="n">
-        <v>14.46</v>
+        <v>14.73</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G7" t="n">
-        <v>600.86</v>
+        <v>596.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>426.92</v>
+        <v>419.9</v>
       </c>
       <c r="B8" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C8" t="n">
-        <v>94.26000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>26.78</v>
+        <v>26.92</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G8" t="n">
-        <v>670.46</v>
+        <v>662.3200000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>426.92</v>
+        <v>419.9</v>
       </c>
       <c r="B9" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C9" t="n">
-        <v>154.11</v>
+        <v>149.51</v>
       </c>
       <c r="D9" t="n">
-        <v>31.7</v>
+        <v>31.77</v>
       </c>
       <c r="E9" t="n">
         <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G9" t="n">
-        <v>735.24</v>
+        <v>727.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>426.92</v>
+        <v>419.9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C10" t="n">
-        <v>264.36</v>
+        <v>261.35</v>
       </c>
       <c r="D10" t="n">
-        <v>77.48999999999999</v>
+        <v>77.09</v>
       </c>
       <c r="E10" t="n">
         <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G10" t="n">
-        <v>891.28</v>
+        <v>884.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>426.92</v>
+        <v>419.9</v>
       </c>
       <c r="B11" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C11" t="n">
-        <v>196.18</v>
+        <v>192.74</v>
       </c>
       <c r="D11" t="n">
-        <v>77.48999999999999</v>
+        <v>77.09</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G11" t="n">
-        <v>823.09</v>
+        <v>816.1900000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>426.92</v>
+        <v>419.9</v>
       </c>
       <c r="B12" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C12" t="n">
-        <v>230.27</v>
+        <v>227.05</v>
       </c>
       <c r="D12" t="n">
-        <v>77.48999999999999</v>
+        <v>77.09</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G12" t="n">
-        <v>857.1799999999999</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>422.3</v>
+        <v>415.58</v>
       </c>
       <c r="B13" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C13" t="n">
-        <v>154.11</v>
+        <v>149.51</v>
       </c>
       <c r="D13" t="n">
-        <v>25.54</v>
+        <v>25.67</v>
       </c>
       <c r="E13" t="n">
-        <v>75.3</v>
+        <v>75.66</v>
       </c>
       <c r="F13" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G13" t="n">
-        <v>759.77</v>
+        <v>752.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>422.3</v>
+        <v>415.58</v>
       </c>
       <c r="B14" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C14" t="n">
-        <v>264.36</v>
+        <v>261.35</v>
       </c>
       <c r="D14" t="n">
-        <v>78.01000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="E14" t="n">
-        <v>75.3</v>
+        <v>75.66</v>
       </c>
       <c r="F14" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G14" t="n">
-        <v>922.49</v>
+        <v>916.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>422.3</v>
+        <v>415.58</v>
       </c>
       <c r="B15" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C15" t="n">
-        <v>205.33</v>
+        <v>202.18</v>
       </c>
       <c r="D15" t="n">
-        <v>78.01000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="E15" t="n">
-        <v>75.3</v>
+        <v>75.66</v>
       </c>
       <c r="F15" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G15" t="n">
-        <v>863.45</v>
+        <v>857.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>422.3</v>
+        <v>415.58</v>
       </c>
       <c r="B16" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C16" t="n">
-        <v>234.85</v>
+        <v>231.77</v>
       </c>
       <c r="D16" t="n">
-        <v>78.01000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="E16" t="n">
-        <v>75.3</v>
+        <v>75.66</v>
       </c>
       <c r="F16" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G16" t="n">
-        <v>892.97</v>
+        <v>887.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>408.65</v>
+        <v>401.95</v>
       </c>
       <c r="B17" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C17" t="n">
-        <v>86.05</v>
+        <v>86.39</v>
       </c>
       <c r="D17" t="n">
-        <v>20.18</v>
+        <v>20.41</v>
       </c>
       <c r="E17" t="n">
-        <v>34.15</v>
+        <v>35.12</v>
       </c>
       <c r="F17" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G17" t="n">
-        <v>631.54</v>
+        <v>630.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>408.65</v>
+        <v>401.95</v>
       </c>
       <c r="B18" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C18" t="n">
-        <v>189.86</v>
+        <v>189.52</v>
       </c>
       <c r="D18" t="n">
-        <v>22.96</v>
+        <v>23.13</v>
       </c>
       <c r="E18" t="n">
-        <v>34.15</v>
+        <v>35.12</v>
       </c>
       <c r="F18" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G18" t="n">
-        <v>738.13</v>
+        <v>736.1799999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>408.65</v>
+        <v>401.95</v>
       </c>
       <c r="B19" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C19" t="n">
-        <v>295.07</v>
+        <v>294.55</v>
       </c>
       <c r="D19" t="n">
-        <v>79.70999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="E19" t="n">
-        <v>34.15</v>
+        <v>35.12</v>
       </c>
       <c r="F19" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G19" t="n">
-        <v>900.08</v>
+        <v>897.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>408.65</v>
+        <v>401.95</v>
       </c>
       <c r="B20" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C20" t="n">
-        <v>236.94</v>
+        <v>236.38</v>
       </c>
       <c r="D20" t="n">
-        <v>79.70999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="E20" t="n">
-        <v>34.15</v>
+        <v>35.12</v>
       </c>
       <c r="F20" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G20" t="n">
-        <v>841.96</v>
+        <v>839.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>408.65</v>
+        <v>401.95</v>
       </c>
       <c r="B21" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C21" t="n">
-        <v>266</v>
+        <v>265.47</v>
       </c>
       <c r="D21" t="n">
-        <v>79.70999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="E21" t="n">
-        <v>34.15</v>
+        <v>35.12</v>
       </c>
       <c r="F21" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G21" t="n">
-        <v>871.02</v>
+        <v>868.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>388.18</v>
+        <v>381.74</v>
       </c>
       <c r="B22" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C22" t="n">
-        <v>117.41</v>
+        <v>112.58</v>
       </c>
       <c r="D22" t="n">
-        <v>23.26</v>
+        <v>23.41</v>
       </c>
       <c r="E22" t="n">
-        <v>30.09</v>
+        <v>30.57</v>
       </c>
       <c r="F22" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G22" t="n">
-        <v>641.45</v>
+        <v>634.76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>388.18</v>
+        <v>381.74</v>
       </c>
       <c r="B23" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C23" t="n">
-        <v>170.11</v>
+        <v>167.84</v>
       </c>
       <c r="D23" t="n">
-        <v>23.85</v>
+        <v>24.01</v>
       </c>
       <c r="E23" t="n">
-        <v>30.09</v>
+        <v>30.57</v>
       </c>
       <c r="F23" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G23" t="n">
-        <v>694.74</v>
+        <v>690.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>388.18</v>
+        <v>381.74</v>
       </c>
       <c r="B24" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C24" t="n">
-        <v>266.32</v>
+        <v>265.55</v>
       </c>
       <c r="D24" t="n">
-        <v>73.59</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>30.09</v>
+        <v>30.57</v>
       </c>
       <c r="F24" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G24" t="n">
-        <v>840.6900000000001</v>
+        <v>837.5599999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>388.18</v>
+        <v>381.74</v>
       </c>
       <c r="B25" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C25" t="n">
-        <v>221.49</v>
+        <v>220.63</v>
       </c>
       <c r="D25" t="n">
-        <v>73.59</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>30.09</v>
+        <v>30.57</v>
       </c>
       <c r="F25" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G25" t="n">
-        <v>795.86</v>
+        <v>792.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>388.18</v>
+        <v>381.74</v>
       </c>
       <c r="B26" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C26" t="n">
-        <v>243.9</v>
+        <v>243.09</v>
       </c>
       <c r="D26" t="n">
-        <v>73.59</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>30.09</v>
+        <v>30.57</v>
       </c>
       <c r="F26" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G26" t="n">
-        <v>818.27</v>
+        <v>815.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>432.22</v>
+        <v>424.87</v>
       </c>
       <c r="B27" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C27" t="n">
-        <v>94.26000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>28.53</v>
+        <v>28.67</v>
       </c>
       <c r="E27" t="n">
-        <v>57.36</v>
+        <v>60.97</v>
       </c>
       <c r="F27" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G27" t="n">
-        <v>694.88</v>
+        <v>690.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>432.22</v>
+        <v>424.87</v>
       </c>
       <c r="B28" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C28" t="n">
-        <v>154.11</v>
+        <v>149.51</v>
       </c>
       <c r="D28" t="n">
-        <v>34.4</v>
+        <v>34.47</v>
       </c>
       <c r="E28" t="n">
-        <v>57.36</v>
+        <v>60.97</v>
       </c>
       <c r="F28" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G28" t="n">
-        <v>760.59</v>
+        <v>756.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>432.22</v>
+        <v>424.87</v>
       </c>
       <c r="B29" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C29" t="n">
-        <v>264.36</v>
+        <v>261.35</v>
       </c>
       <c r="D29" t="n">
-        <v>93.01000000000001</v>
+        <v>92.44</v>
       </c>
       <c r="E29" t="n">
-        <v>57.36</v>
+        <v>60.97</v>
       </c>
       <c r="F29" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G29" t="n">
-        <v>929.45</v>
+        <v>926.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>432.22</v>
+        <v>424.87</v>
       </c>
       <c r="B30" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C30" t="n">
-        <v>184.63</v>
+        <v>182.05</v>
       </c>
       <c r="D30" t="n">
-        <v>93.01000000000001</v>
+        <v>92.44</v>
       </c>
       <c r="E30" t="n">
-        <v>57.36</v>
+        <v>60.97</v>
       </c>
       <c r="F30" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G30" t="n">
-        <v>849.72</v>
+        <v>846.79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>372.74</v>
+        <v>369.13</v>
       </c>
       <c r="B31" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C31" t="n">
-        <v>117.41</v>
+        <v>112.58</v>
       </c>
       <c r="D31" t="n">
-        <v>18.73</v>
+        <v>18.96</v>
       </c>
       <c r="E31" t="n">
-        <v>32.4</v>
+        <v>32.69</v>
       </c>
       <c r="F31" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G31" t="n">
-        <v>623.79</v>
+        <v>619.8099999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>372.74</v>
+        <v>369.13</v>
       </c>
       <c r="B32" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C32" t="n">
-        <v>170.11</v>
+        <v>167.84</v>
       </c>
       <c r="D32" t="n">
-        <v>22.15</v>
+        <v>22.35</v>
       </c>
       <c r="E32" t="n">
-        <v>32.4</v>
+        <v>32.69</v>
       </c>
       <c r="F32" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G32" t="n">
-        <v>679.91</v>
+        <v>678.46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>372.74</v>
+        <v>369.13</v>
       </c>
       <c r="B33" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C33" t="n">
-        <v>266.32</v>
+        <v>265.55</v>
       </c>
       <c r="D33" t="n">
-        <v>79.89</v>
+        <v>79.86</v>
       </c>
       <c r="E33" t="n">
-        <v>32.4</v>
+        <v>32.69</v>
       </c>
       <c r="F33" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G33" t="n">
-        <v>833.85</v>
+        <v>833.6799999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>372.74</v>
+        <v>369.13</v>
       </c>
       <c r="B34" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C34" t="n">
-        <v>192.62</v>
+        <v>177.15</v>
       </c>
       <c r="D34" t="n">
-        <v>79.89</v>
+        <v>79.86</v>
       </c>
       <c r="E34" t="n">
-        <v>32.4</v>
+        <v>32.69</v>
       </c>
       <c r="F34" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G34" t="n">
-        <v>760.15</v>
+        <v>745.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>398.13</v>
+        <v>392.92</v>
       </c>
       <c r="B35" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C35" t="n">
-        <v>139.29</v>
+        <v>130.93</v>
       </c>
       <c r="D35" t="n">
-        <v>58.96</v>
+        <v>59.04</v>
       </c>
       <c r="E35" t="n">
-        <v>36.64</v>
+        <v>38.2</v>
       </c>
       <c r="F35" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G35" t="n">
-        <v>715.53</v>
+        <v>707.54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>398.13</v>
+        <v>392.92</v>
       </c>
       <c r="B36" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C36" t="n">
-        <v>220.08</v>
+        <v>206.87</v>
       </c>
       <c r="D36" t="n">
-        <v>181.06</v>
+        <v>180.33</v>
       </c>
       <c r="E36" t="n">
-        <v>36.64</v>
+        <v>38.2</v>
       </c>
       <c r="F36" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G36" t="n">
-        <v>918.42</v>
+        <v>904.78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>398.13</v>
+        <v>392.92</v>
       </c>
       <c r="B37" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C37" t="n">
-        <v>183.77</v>
+        <v>172.7</v>
       </c>
       <c r="D37" t="n">
-        <v>181.06</v>
+        <v>180.33</v>
       </c>
       <c r="E37" t="n">
-        <v>36.64</v>
+        <v>38.2</v>
       </c>
       <c r="F37" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G37" t="n">
-        <v>882.11</v>
+        <v>870.61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>398.13</v>
+        <v>392.92</v>
       </c>
       <c r="B38" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C38" t="n">
-        <v>106.61</v>
+        <v>98.94</v>
       </c>
       <c r="D38" t="n">
-        <v>45.18</v>
+        <v>45.54</v>
       </c>
       <c r="E38" t="n">
-        <v>29.88</v>
+        <v>31.13</v>
       </c>
       <c r="F38" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G38" t="n">
-        <v>662.3099999999999</v>
+        <v>654.99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>398.13</v>
+        <v>392.92</v>
       </c>
       <c r="B39" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C39" t="n">
-        <v>161.62</v>
+        <v>148.28</v>
       </c>
       <c r="D39" t="n">
-        <v>109.67</v>
+        <v>109.59</v>
       </c>
       <c r="E39" t="n">
-        <v>29.88</v>
+        <v>31.13</v>
       </c>
       <c r="F39" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G39" t="n">
-        <v>781.8099999999999</v>
+        <v>768.38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>398.13</v>
+        <v>392.92</v>
       </c>
       <c r="B40" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C40" t="n">
-        <v>136.09</v>
+        <v>121.66</v>
       </c>
       <c r="D40" t="n">
-        <v>109.67</v>
+        <v>109.59</v>
       </c>
       <c r="E40" t="n">
-        <v>29.88</v>
+        <v>31.13</v>
       </c>
       <c r="F40" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G40" t="n">
-        <v>756.27</v>
+        <v>741.76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>380.11</v>
+        <v>376.03</v>
       </c>
       <c r="B41" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C41" t="n">
-        <v>189.86</v>
+        <v>189.52</v>
       </c>
       <c r="D41" t="n">
-        <v>30.82</v>
+        <v>31.04</v>
       </c>
       <c r="E41" t="n">
-        <v>29.3</v>
+        <v>30.09</v>
       </c>
       <c r="F41" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G41" t="n">
-        <v>712.58</v>
+        <v>713.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>380.11</v>
+        <v>376.03</v>
       </c>
       <c r="B42" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C42" t="n">
-        <v>295.07</v>
+        <v>294.55</v>
       </c>
       <c r="D42" t="n">
-        <v>69.8</v>
+        <v>69.83</v>
       </c>
       <c r="E42" t="n">
-        <v>29.3</v>
+        <v>30.09</v>
       </c>
       <c r="F42" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G42" t="n">
-        <v>856.77</v>
+        <v>856.96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>380.11</v>
+        <v>376.03</v>
       </c>
       <c r="B43" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C43" t="n">
-        <v>219.97</v>
+        <v>219.28</v>
       </c>
       <c r="D43" t="n">
-        <v>69.8</v>
+        <v>69.83</v>
       </c>
       <c r="E43" t="n">
-        <v>29.3</v>
+        <v>30.09</v>
       </c>
       <c r="F43" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G43" t="n">
         <v>781.6799999999999</v>
@@ -1438,692 +1438,692 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>380.11</v>
+        <v>376.03</v>
       </c>
       <c r="B44" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C44" t="n">
-        <v>257.52</v>
+        <v>256.91</v>
       </c>
       <c r="D44" t="n">
-        <v>69.8</v>
+        <v>69.83</v>
       </c>
       <c r="E44" t="n">
-        <v>29.3</v>
+        <v>30.09</v>
       </c>
       <c r="F44" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G44" t="n">
-        <v>819.22</v>
+        <v>819.3200000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>433.76</v>
+        <v>426.32</v>
       </c>
       <c r="B45" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C45" t="n">
-        <v>154.11</v>
+        <v>149.51</v>
       </c>
       <c r="D45" t="n">
-        <v>34.05</v>
+        <v>34.08</v>
       </c>
       <c r="E45" t="n">
-        <v>33.54</v>
+        <v>33.99</v>
       </c>
       <c r="F45" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G45" t="n">
-        <v>737.97</v>
+        <v>730.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>433.76</v>
+        <v>426.32</v>
       </c>
       <c r="B46" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C46" t="n">
-        <v>264.36</v>
+        <v>261.35</v>
       </c>
       <c r="D46" t="n">
-        <v>103.71</v>
+        <v>102.98</v>
       </c>
       <c r="E46" t="n">
-        <v>33.54</v>
+        <v>33.99</v>
       </c>
       <c r="F46" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G46" t="n">
-        <v>917.88</v>
+        <v>911.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>433.76</v>
+        <v>426.32</v>
       </c>
       <c r="B47" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C47" t="n">
-        <v>224.05</v>
+        <v>221.02</v>
       </c>
       <c r="D47" t="n">
-        <v>103.71</v>
+        <v>102.98</v>
       </c>
       <c r="E47" t="n">
-        <v>33.54</v>
+        <v>33.99</v>
       </c>
       <c r="F47" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G47" t="n">
-        <v>877.5700000000001</v>
+        <v>870.76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>433.61</v>
+        <v>426.18</v>
       </c>
       <c r="B48" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C48" t="n">
-        <v>170.11</v>
+        <v>167.84</v>
       </c>
       <c r="D48" t="n">
-        <v>46.96</v>
+        <v>46.95</v>
       </c>
       <c r="E48" t="n">
-        <v>31.81</v>
+        <v>32.38</v>
       </c>
       <c r="F48" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G48" t="n">
-        <v>765</v>
+        <v>759.8099999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>433.61</v>
+        <v>426.18</v>
       </c>
       <c r="B49" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C49" t="n">
-        <v>266.32</v>
+        <v>265.55</v>
       </c>
       <c r="D49" t="n">
-        <v>110.7</v>
+        <v>110.04</v>
       </c>
       <c r="E49" t="n">
-        <v>31.81</v>
+        <v>32.38</v>
       </c>
       <c r="F49" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G49" t="n">
-        <v>924.9400000000001</v>
+        <v>920.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>433.61</v>
+        <v>426.18</v>
       </c>
       <c r="B50" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C50" t="n">
-        <v>166.3</v>
+        <v>165.3</v>
       </c>
       <c r="D50" t="n">
-        <v>110.7</v>
+        <v>110.04</v>
       </c>
       <c r="E50" t="n">
-        <v>31.81</v>
+        <v>32.38</v>
       </c>
       <c r="F50" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G50" t="n">
-        <v>824.92</v>
+        <v>820.35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>418.92</v>
+        <v>412.41</v>
       </c>
       <c r="B51" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C51" t="n">
-        <v>189.86</v>
+        <v>189.52</v>
       </c>
       <c r="D51" t="n">
-        <v>28.48</v>
+        <v>28.66</v>
       </c>
       <c r="E51" t="n">
-        <v>32.57</v>
+        <v>33.16</v>
       </c>
       <c r="F51" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G51" t="n">
-        <v>752.34</v>
+        <v>750.21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>418.92</v>
+        <v>412.41</v>
       </c>
       <c r="B52" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C52" t="n">
-        <v>295.07</v>
+        <v>294.55</v>
       </c>
       <c r="D52" t="n">
-        <v>71.86</v>
+        <v>71.63</v>
       </c>
       <c r="E52" t="n">
-        <v>32.57</v>
+        <v>33.16</v>
       </c>
       <c r="F52" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G52" t="n">
-        <v>900.92</v>
+        <v>898.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>418.92</v>
+        <v>412.41</v>
       </c>
       <c r="B53" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C53" t="n">
-        <v>253.21</v>
+        <v>252.6</v>
       </c>
       <c r="D53" t="n">
-        <v>71.86</v>
+        <v>71.63</v>
       </c>
       <c r="E53" t="n">
-        <v>32.57</v>
+        <v>33.16</v>
       </c>
       <c r="F53" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G53" t="n">
-        <v>859.0700000000001</v>
+        <v>856.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>407.39</v>
+        <v>401.6</v>
       </c>
       <c r="B54" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C54" t="n">
-        <v>86.05</v>
+        <v>86.39</v>
       </c>
       <c r="D54" t="n">
-        <v>22.62</v>
+        <v>22.83</v>
       </c>
       <c r="E54" t="n">
-        <v>34.33</v>
+        <v>34.97</v>
       </c>
       <c r="F54" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G54" t="n">
-        <v>632.9</v>
+        <v>632.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>407.39</v>
+        <v>401.6</v>
       </c>
       <c r="B55" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C55" t="n">
-        <v>189.86</v>
+        <v>189.52</v>
       </c>
       <c r="D55" t="n">
-        <v>30.23</v>
+        <v>30.37</v>
       </c>
       <c r="E55" t="n">
-        <v>34.33</v>
+        <v>34.97</v>
       </c>
       <c r="F55" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G55" t="n">
-        <v>744.3099999999999</v>
+        <v>742.92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>407.39</v>
+        <v>401.6</v>
       </c>
       <c r="B56" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C56" t="n">
-        <v>295.07</v>
+        <v>294.55</v>
       </c>
       <c r="D56" t="n">
-        <v>73.56999999999999</v>
+        <v>73.36</v>
       </c>
       <c r="E56" t="n">
-        <v>34.33</v>
+        <v>34.97</v>
       </c>
       <c r="F56" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G56" t="n">
-        <v>892.86</v>
+        <v>890.9400000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>407.39</v>
+        <v>401.6</v>
       </c>
       <c r="B57" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C57" t="n">
-        <v>237.36</v>
+        <v>240.63</v>
       </c>
       <c r="D57" t="n">
-        <v>73.56999999999999</v>
+        <v>73.36</v>
       </c>
       <c r="E57" t="n">
-        <v>34.33</v>
+        <v>34.97</v>
       </c>
       <c r="F57" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G57" t="n">
-        <v>835.16</v>
+        <v>837.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>414.11</v>
+        <v>407.9</v>
       </c>
       <c r="B58" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C58" t="n">
-        <v>94.26000000000001</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>22.33</v>
+        <v>22.5</v>
       </c>
       <c r="E58" t="n">
-        <v>44.43</v>
+        <v>45.11</v>
       </c>
       <c r="F58" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G58" t="n">
-        <v>657.64</v>
+        <v>651.01</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>414.11</v>
+        <v>407.9</v>
       </c>
       <c r="B59" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C59" t="n">
-        <v>154.11</v>
+        <v>149.51</v>
       </c>
       <c r="D59" t="n">
-        <v>29.51</v>
+        <v>29.61</v>
       </c>
       <c r="E59" t="n">
-        <v>44.43</v>
+        <v>45.11</v>
       </c>
       <c r="F59" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G59" t="n">
-        <v>724.66</v>
+        <v>718.59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>414.11</v>
+        <v>407.9</v>
       </c>
       <c r="B60" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C60" t="n">
-        <v>264.36</v>
+        <v>261.35</v>
       </c>
       <c r="D60" t="n">
-        <v>71.65000000000001</v>
+        <v>71.38</v>
       </c>
       <c r="E60" t="n">
-        <v>44.43</v>
+        <v>45.11</v>
       </c>
       <c r="F60" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G60" t="n">
-        <v>877.0599999999999</v>
+        <v>872.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>414.11</v>
+        <v>407.9</v>
       </c>
       <c r="B61" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C61" t="n">
-        <v>217.79</v>
+        <v>208.97</v>
       </c>
       <c r="D61" t="n">
-        <v>71.65000000000001</v>
+        <v>71.38</v>
       </c>
       <c r="E61" t="n">
-        <v>44.43</v>
+        <v>45.11</v>
       </c>
       <c r="F61" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G61" t="n">
-        <v>830.48</v>
+        <v>819.8200000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>402.47</v>
+        <v>396.99</v>
       </c>
       <c r="B62" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C62" t="n">
-        <v>86.05</v>
+        <v>86.39</v>
       </c>
       <c r="D62" t="n">
-        <v>22.47</v>
+        <v>22.66</v>
       </c>
       <c r="E62" t="n">
-        <v>32.21</v>
+        <v>33.17</v>
       </c>
       <c r="F62" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G62" t="n">
-        <v>625.7</v>
+        <v>625.66</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>402.47</v>
+        <v>396.99</v>
       </c>
       <c r="B63" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C63" t="n">
-        <v>189.86</v>
+        <v>189.52</v>
       </c>
       <c r="D63" t="n">
-        <v>29.99</v>
+        <v>30.1</v>
       </c>
       <c r="E63" t="n">
-        <v>32.21</v>
+        <v>33.17</v>
       </c>
       <c r="F63" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G63" t="n">
-        <v>737.03</v>
+        <v>736.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>402.47</v>
+        <v>396.99</v>
       </c>
       <c r="B64" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C64" t="n">
-        <v>295.07</v>
+        <v>294.55</v>
       </c>
       <c r="D64" t="n">
-        <v>84.27</v>
+        <v>83.97</v>
       </c>
       <c r="E64" t="n">
-        <v>32.21</v>
+        <v>33.17</v>
       </c>
       <c r="F64" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G64" t="n">
-        <v>896.53</v>
+        <v>895.13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>402.47</v>
+        <v>396.99</v>
       </c>
       <c r="B65" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C65" t="n">
-        <v>212.83</v>
+        <v>212.33</v>
       </c>
       <c r="D65" t="n">
-        <v>84.27</v>
+        <v>83.97</v>
       </c>
       <c r="E65" t="n">
-        <v>32.21</v>
+        <v>33.17</v>
       </c>
       <c r="F65" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G65" t="n">
-        <v>814.29</v>
+        <v>812.91</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>387.6</v>
+        <v>383.05</v>
       </c>
       <c r="B66" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C66" t="n">
-        <v>117.41</v>
+        <v>112.58</v>
       </c>
       <c r="D66" t="n">
-        <v>24.24</v>
+        <v>24.51</v>
       </c>
       <c r="E66" t="n">
-        <v>32.08</v>
+        <v>32.51</v>
       </c>
       <c r="F66" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G66" t="n">
-        <v>643.84</v>
+        <v>639.11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>387.6</v>
+        <v>383.05</v>
       </c>
       <c r="B67" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C67" t="n">
-        <v>170.11</v>
+        <v>167.84</v>
       </c>
       <c r="D67" t="n">
-        <v>32.86</v>
+        <v>33.08</v>
       </c>
       <c r="E67" t="n">
-        <v>32.08</v>
+        <v>32.51</v>
       </c>
       <c r="F67" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G67" t="n">
-        <v>705.15</v>
+        <v>702.9400000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>387.6</v>
+        <v>383.05</v>
       </c>
       <c r="B68" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C68" t="n">
-        <v>266.32</v>
+        <v>265.55</v>
       </c>
       <c r="D68" t="n">
-        <v>89.84</v>
+        <v>89.73</v>
       </c>
       <c r="E68" t="n">
-        <v>32.08</v>
+        <v>32.51</v>
       </c>
       <c r="F68" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G68" t="n">
-        <v>858.34</v>
+        <v>857.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>387.6</v>
+        <v>383.05</v>
       </c>
       <c r="B69" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C69" t="n">
-        <v>217.84</v>
+        <v>216.97</v>
       </c>
       <c r="D69" t="n">
-        <v>89.84</v>
+        <v>89.73</v>
       </c>
       <c r="E69" t="n">
-        <v>32.08</v>
+        <v>32.51</v>
       </c>
       <c r="F69" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G69" t="n">
-        <v>809.87</v>
+        <v>808.72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>394.54</v>
+        <v>389.55</v>
       </c>
       <c r="B70" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C70" t="n">
-        <v>74.15000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D70" t="n">
-        <v>24.12</v>
+        <v>24.27</v>
       </c>
       <c r="E70" t="n">
-        <v>28.58</v>
+        <v>29.46</v>
       </c>
       <c r="F70" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G70" t="n">
-        <v>603.89</v>
+        <v>601.9400000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>394.54</v>
+        <v>389.55</v>
       </c>
       <c r="B71" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C71" t="n">
-        <v>172.34</v>
+        <v>166.94</v>
       </c>
       <c r="D71" t="n">
-        <v>31.11</v>
+        <v>31.23</v>
       </c>
       <c r="E71" t="n">
-        <v>28.58</v>
+        <v>29.46</v>
       </c>
       <c r="F71" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G71" t="n">
-        <v>709.0599999999999</v>
+        <v>703.63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>394.54</v>
+        <v>389.55</v>
       </c>
       <c r="B72" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C72" t="n">
-        <v>254.79</v>
+        <v>251.19</v>
       </c>
       <c r="D72" t="n">
-        <v>70.03</v>
+        <v>69.89</v>
       </c>
       <c r="E72" t="n">
-        <v>28.58</v>
+        <v>29.46</v>
       </c>
       <c r="F72" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G72" t="n">
-        <v>830.4400000000001</v>
+        <v>826.55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>394.54</v>
+        <v>389.55</v>
       </c>
       <c r="B73" t="n">
-        <v>55.93</v>
+        <v>57.14</v>
       </c>
       <c r="C73" t="n">
-        <v>222.85</v>
+        <v>219.26</v>
       </c>
       <c r="D73" t="n">
-        <v>70.03</v>
+        <v>69.89</v>
       </c>
       <c r="E73" t="n">
-        <v>28.58</v>
+        <v>29.46</v>
       </c>
       <c r="F73" t="n">
-        <v>26.57</v>
+        <v>29.31</v>
       </c>
       <c r="G73" t="n">
-        <v>798.5</v>
+        <v>794.62</v>
       </c>
     </row>
   </sheetData>
